--- a/Others/workline.xlsx
+++ b/Others/workline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniq\PycharmProjects\project-danielteresa\Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teres\OneDrive\Documentos\UCD\Summer\project-danielteresa\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D55DAE-7E6A-4122-9FA3-0F8F0714B384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EB7072-6915-4979-B034-2E7329987C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53D0087E-5091-4FDC-95F3-087C6436DE09}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
   <si>
     <t>Thu</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Understand concept hyper. nº of warm-up epochs</t>
   </si>
   <si>
-    <t>Calc. as a % the nº of models to train using the random str.</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Real</t>
+  </si>
+  <si>
+    <t>Tunning Grid</t>
   </si>
 </sst>
 </file>
@@ -352,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -870,11 +870,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -896,10 +951,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -963,7 +1014,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1071,6 +1122,28 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1102,7 +1175,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1425,10 +1498,10 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="T30" sqref="T30"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14:Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
@@ -1443,113 +1516,113 @@
       <c r="H2" s="8"/>
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="60" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="62"/>
+      <c r="Q3" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="64"/>
-      <c r="Q3" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="67"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="65"/>
     </row>
     <row r="4" spans="2:28" ht="5.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="7">
@@ -1561,10 +1634,10 @@
       <c r="F6" s="6">
         <v>10</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="16">
         <v>11</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <v>12</v>
       </c>
       <c r="I6" s="6">
@@ -1582,10 +1655,10 @@
       <c r="M6" s="6">
         <v>17</v>
       </c>
-      <c r="N6" s="19">
+      <c r="N6" s="17">
         <v>18</v>
       </c>
-      <c r="O6" s="42">
+      <c r="O6" s="40">
         <v>19</v>
       </c>
       <c r="Q6" s="7">
@@ -1597,10 +1670,10 @@
       <c r="S6" s="6">
         <v>10</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="16">
         <v>11</v>
       </c>
-      <c r="U6" s="17">
+      <c r="U6" s="15">
         <v>12</v>
       </c>
       <c r="V6" s="6">
@@ -1618,948 +1691,954 @@
       <c r="Z6" s="6">
         <v>17</v>
       </c>
-      <c r="AA6" s="19">
+      <c r="AA6" s="17">
         <v>18</v>
       </c>
-      <c r="AB6" s="42">
+      <c r="AB6" s="40">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="43" t="s">
+    <row r="7" spans="2:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="25" t="s">
+      <c r="K7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="L7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="M7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="N7" s="28" t="s">
+      <c r="N7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="44" t="s">
+      <c r="O7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="43" t="s">
+      <c r="Q7" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="S7" s="25" t="s">
+      <c r="S7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="T7" s="26" t="s">
+      <c r="T7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="27" t="s">
+      <c r="U7" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="V7" s="25" t="s">
+      <c r="V7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="W7" s="25" t="s">
+      <c r="W7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="X7" s="25" t="s">
+      <c r="X7" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Y7" s="25" t="s">
+      <c r="Y7" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="Z7" s="25" t="s">
+      <c r="Z7" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="AA7" s="28" t="s">
+      <c r="AA7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AB7" s="44" t="s">
+      <c r="AB7" s="42" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="46"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="34"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="34"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="46"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="44"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="71"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="72"/>
+      <c r="AB8" s="73"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="46"/>
+      <c r="Q9" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="46"/>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B10" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="46"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="46"/>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B11" s="19"/>
+      <c r="C11" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="46"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="74"/>
+      <c r="X11" s="74"/>
+      <c r="Y11" s="74"/>
+      <c r="Z11" s="74"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="46"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="47" t="s">
+      <c r="C12" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="46"/>
+      <c r="Q12" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="46"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B13" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="46"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="46"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B14" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="32"/>
+      <c r="O14" s="46"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="46"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="46"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="46"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="48"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="34"/>
-      <c r="Z9" s="34"/>
-      <c r="AA9" s="68"/>
-      <c r="AB9" s="48"/>
-    </row>
-    <row r="10" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
+      <c r="D16" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
+      <c r="O16" s="46"/>
+      <c r="Q16" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="46"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="47"/>
+      <c r="E17" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="46"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="74"/>
+      <c r="T17" s="74"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="74"/>
+      <c r="X17" s="74"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="74"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="46"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="48"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="J18" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="49"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="36"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="67"/>
+      <c r="AB18" s="49"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B19" s="19"/>
+      <c r="C19" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="43"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="44"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="44"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B20" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="48"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="N20" s="36"/>
+      <c r="O20" s="49"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="36"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="36"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="49"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+      <c r="C21" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="44"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="44"/>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="47"/>
+      <c r="E22" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="33"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="46"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="75"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="74"/>
+      <c r="X22" s="74"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="74"/>
+      <c r="AA22" s="74"/>
+      <c r="AB22" s="46"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="47"/>
+      <c r="E23" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="33"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="46"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74"/>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="74"/>
+      <c r="AA23" s="74"/>
+      <c r="AB23" s="46"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="47"/>
+      <c r="E24" s="32"/>
+      <c r="G24" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24" s="32"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="46"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="74"/>
+      <c r="Z24" s="74"/>
+      <c r="AA24" s="74"/>
+      <c r="AB24" s="46"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B25" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="48"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="36"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="N25" s="36"/>
+      <c r="O25" s="49"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="75"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="36"/>
+      <c r="AB25" s="49"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B26" s="19"/>
+      <c r="C26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" s="43"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="44"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="30"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="44"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B27" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="48"/>
-      <c r="Q10" s="34"/>
-      <c r="R10" s="34"/>
-      <c r="S10" s="34"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="36"/>
-      <c r="V10" s="34"/>
-      <c r="W10" s="34"/>
-      <c r="X10" s="34"/>
-      <c r="Y10" s="34"/>
-      <c r="Z10" s="34"/>
-      <c r="AA10" s="68"/>
-      <c r="AB10" s="48"/>
-    </row>
-    <row r="11" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
-      <c r="C11" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="34"/>
-      <c r="O11" s="48"/>
-      <c r="Q11" s="34"/>
-      <c r="R11" s="34"/>
-      <c r="S11" s="34"/>
-      <c r="T11" s="34"/>
-      <c r="U11" s="36"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="34"/>
-      <c r="Y11" s="34"/>
-      <c r="Z11" s="34"/>
-      <c r="AA11" s="68"/>
-      <c r="AB11" s="48"/>
-    </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B12" s="23" t="s">
+      <c r="C27" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="47"/>
+      <c r="E27" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="46"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="74"/>
+      <c r="T27" s="74"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="74"/>
+      <c r="X27" s="74"/>
+      <c r="Y27" s="74"/>
+      <c r="Z27" s="74"/>
+      <c r="AA27" s="74"/>
+      <c r="AB27" s="46"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B28" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="48"/>
-      <c r="Q12" s="34"/>
-      <c r="R12" s="34"/>
-      <c r="S12" s="34"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="34"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="68"/>
-      <c r="AB12" s="48"/>
-    </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="48"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="36"/>
-      <c r="V13" s="34"/>
-      <c r="W13" s="34"/>
-      <c r="X13" s="34"/>
-      <c r="Y13" s="34"/>
-      <c r="Z13" s="34"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="48"/>
-    </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+      <c r="C28" s="59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="48"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="49"/>
+      <c r="Q28" s="48"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="36"/>
+      <c r="V28" s="36"/>
+      <c r="W28" s="36"/>
+      <c r="X28" s="36"/>
+      <c r="Y28" s="36"/>
+      <c r="Z28" s="36"/>
+      <c r="AA28" s="36"/>
+      <c r="AB28" s="49"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B29" s="19"/>
+      <c r="C29" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29" s="47"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="46"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
+      <c r="Z29" s="74"/>
+      <c r="AA29" s="74"/>
+      <c r="AB29" s="46"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
+      <c r="B30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="47"/>
+      <c r="E30" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="M30" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="N30" s="32"/>
+      <c r="O30" s="46"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="74"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="74"/>
+      <c r="V30" s="74"/>
+      <c r="W30" s="74"/>
+      <c r="X30" s="74"/>
+      <c r="Y30" s="74"/>
+      <c r="Z30" s="74"/>
+      <c r="AA30" s="74"/>
+      <c r="AB30" s="46"/>
+    </row>
+    <row r="31" spans="2:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="57" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="48"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="36"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="34"/>
-      <c r="X14" s="34"/>
-      <c r="Y14" s="34"/>
-      <c r="Z14" s="34"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="48"/>
-    </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="48"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="34"/>
-      <c r="Z15" s="34"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="48"/>
-    </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
-      <c r="C16" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="48"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="34"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="34"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="34"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="48"/>
-    </row>
-    <row r="17" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B17" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="48"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="34"/>
-      <c r="W17" s="34"/>
-      <c r="X17" s="34"/>
-      <c r="Y17" s="34"/>
-      <c r="Z17" s="34"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="48"/>
-    </row>
-    <row r="18" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B18" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="51"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="34"/>
-      <c r="S18" s="34"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="38"/>
-      <c r="Y18" s="38"/>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="51"/>
-    </row>
-    <row r="19" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="46"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="46"/>
-    </row>
-    <row r="20" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B20" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="51"/>
-      <c r="Q20" s="50"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="39"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="51"/>
-    </row>
-    <row r="21" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B21" s="21"/>
-      <c r="C21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="45"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="46"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="46"/>
-    </row>
-    <row r="22" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B22" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="48"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="48"/>
-    </row>
-    <row r="23" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="48"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="48"/>
-    </row>
-    <row r="24" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="I24" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="48"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="48"/>
-    </row>
-    <row r="25" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B25" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="59" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="L25" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="M25" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="38"/>
-      <c r="O25" s="51"/>
-      <c r="Q25" s="50"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="51"/>
-    </row>
-    <row r="26" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B26" s="21"/>
-      <c r="C26" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="45"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="46"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="31"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="31"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="31"/>
-      <c r="AB26" s="46"/>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B27" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="48"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="34"/>
-      <c r="S27" s="34"/>
-      <c r="T27" s="34"/>
-      <c r="U27" s="36"/>
-      <c r="V27" s="34"/>
-      <c r="W27" s="34"/>
-      <c r="X27" s="34"/>
-      <c r="Y27" s="34"/>
-      <c r="Z27" s="34"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="48"/>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B28" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" s="61" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="50"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="51"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="38"/>
-      <c r="S28" s="38"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="38"/>
-      <c r="V28" s="38"/>
-      <c r="W28" s="38"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="38"/>
-      <c r="Z28" s="38"/>
-      <c r="AA28" s="38"/>
-      <c r="AB28" s="51"/>
-    </row>
-    <row r="29" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B29" s="21"/>
-      <c r="C29" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="48"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="48"/>
-    </row>
-    <row r="30" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B30" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="49"/>
-      <c r="E30" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="K30" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="L30" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="M30" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="N30" s="34"/>
-      <c r="O30" s="48"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="48"/>
-    </row>
-    <row r="31" spans="2:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="52"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="53"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
-      <c r="O31" s="55"/>
-      <c r="Q31" s="52"/>
-      <c r="R31" s="53"/>
-      <c r="S31" s="53"/>
-      <c r="T31" s="54"/>
-      <c r="U31" s="53"/>
-      <c r="V31" s="53"/>
-      <c r="W31" s="53"/>
-      <c r="X31" s="53"/>
-      <c r="Y31" s="53"/>
-      <c r="Z31" s="53"/>
-      <c r="AA31" s="53"/>
-      <c r="AB31" s="55"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="53"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="51"/>
+      <c r="S31" s="51"/>
+      <c r="T31" s="52"/>
+      <c r="U31" s="51"/>
+      <c r="V31" s="51"/>
+      <c r="W31" s="51"/>
+      <c r="X31" s="51"/>
+      <c r="Y31" s="51"/>
+      <c r="Z31" s="51"/>
+      <c r="AA31" s="51"/>
+      <c r="AB31" s="53"/>
     </row>
     <row r="32" spans="2:28" ht="7.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G33" s="30" t="s">
-        <v>38</v>
+      <c r="G33" s="28" t="s">
+        <v>37</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
-      <c r="K33" s="30" t="s">
-        <v>29</v>
+      <c r="K33" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="7:13" x14ac:dyDescent="0.25">
-      <c r="G34" s="29" t="s">
+      <c r="G34" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="H34" s="29" t="s">
+      <c r="I34" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I34" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="K34" s="22" t="s">
+      <c r="L34" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L34" s="23" t="s">
+      <c r="M34" s="22" t="s">
         <v>36</v>
-      </c>
-      <c r="M34" s="24" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Others/workline.xlsx
+++ b/Others/workline.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teres\OneDrive\Documentos\UCD\Summer\project-danielteresa\Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daniq\PycharmProjects\project-danielteresa\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EB7072-6915-4979-B034-2E7329987C0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFEE5031-8592-46F8-B648-D7046E16E374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53D0087E-5091-4FDC-95F3-087C6436DE09}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="43">
   <si>
     <t>Thu</t>
   </si>
@@ -929,7 +929,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1122,28 +1122,24 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1175,7 +1171,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1498,10 +1494,10 @@
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="D2" sqref="D2"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14:Q14"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
@@ -1621,8 +1617,8 @@
       </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="68"/>
-      <c r="C6" s="68" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="7">
@@ -1699,8 +1695,8 @@
       </c>
     </row>
     <row r="7" spans="2:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="41" t="s">
         <v>0</v>
       </c>
@@ -1791,18 +1787,18 @@
       <c r="M8" s="29"/>
       <c r="N8" s="29"/>
       <c r="O8" s="44"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="71"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="73"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="71"/>
+      <c r="AB8" s="72"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
@@ -1828,15 +1824,15 @@
       <c r="Q9" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="74"/>
-      <c r="S9" s="74"/>
-      <c r="T9" s="74"/>
+      <c r="R9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="T9" s="32"/>
       <c r="U9" s="34"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
+      <c r="V9" s="32"/>
+      <c r="W9" s="32"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="32"/>
+      <c r="Z9" s="32"/>
       <c r="AA9" s="66"/>
       <c r="AB9" s="46"/>
     </row>
@@ -1862,15 +1858,17 @@
       <c r="N10" s="32"/>
       <c r="O10" s="46"/>
       <c r="Q10" s="47"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
+      <c r="R10" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="S10" s="32"/>
+      <c r="T10" s="32"/>
       <c r="U10" s="34"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
+      <c r="V10" s="32"/>
+      <c r="W10" s="32"/>
+      <c r="X10" s="32"/>
+      <c r="Y10" s="32"/>
+      <c r="Z10" s="32"/>
       <c r="AA10" s="66"/>
       <c r="AB10" s="46"/>
     </row>
@@ -1892,15 +1890,15 @@
       <c r="N11" s="32"/>
       <c r="O11" s="46"/>
       <c r="Q11" s="47"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="32"/>
       <c r="U11" s="34"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
-      <c r="Y11" s="74"/>
-      <c r="Z11" s="74"/>
+      <c r="V11" s="32"/>
+      <c r="W11" s="32"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="32"/>
+      <c r="Z11" s="32"/>
       <c r="AA11" s="66"/>
       <c r="AB11" s="46"/>
     </row>
@@ -1928,15 +1926,15 @@
       <c r="Q12" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
       <c r="U12" s="34"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="74"/>
-      <c r="Y12" s="74"/>
-      <c r="Z12" s="74"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
       <c r="AA12" s="66"/>
       <c r="AB12" s="46"/>
     </row>
@@ -1960,15 +1958,15 @@
       <c r="N13" s="32"/>
       <c r="O13" s="46"/>
       <c r="Q13" s="47"/>
-      <c r="R13" s="74"/>
-      <c r="S13" s="74"/>
-      <c r="T13" s="74"/>
+      <c r="R13" s="32"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="32"/>
       <c r="U13" s="34"/>
-      <c r="V13" s="74"/>
-      <c r="W13" s="74"/>
-      <c r="X13" s="74"/>
-      <c r="Y13" s="74"/>
-      <c r="Z13" s="74"/>
+      <c r="V13" s="32"/>
+      <c r="W13" s="32"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="32"/>
+      <c r="Z13" s="32"/>
       <c r="AA13" s="66"/>
       <c r="AB13" s="46"/>
     </row>
@@ -1994,15 +1992,17 @@
       <c r="N14" s="32"/>
       <c r="O14" s="46"/>
       <c r="Q14" s="47"/>
-      <c r="R14" s="74"/>
-      <c r="S14" s="74"/>
-      <c r="T14" s="74"/>
+      <c r="R14" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
       <c r="U14" s="34"/>
-      <c r="V14" s="74"/>
-      <c r="W14" s="74"/>
-      <c r="X14" s="74"/>
-      <c r="Y14" s="74"/>
-      <c r="Z14" s="74"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+      <c r="Z14" s="32"/>
       <c r="AA14" s="66"/>
       <c r="AB14" s="46"/>
     </row>
@@ -2028,15 +2028,17 @@
       <c r="N15" s="32"/>
       <c r="O15" s="46"/>
       <c r="Q15" s="47"/>
-      <c r="R15" s="74"/>
-      <c r="S15" s="74"/>
-      <c r="T15" s="74"/>
+      <c r="R15" s="32"/>
+      <c r="S15" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" s="32"/>
       <c r="U15" s="34"/>
-      <c r="V15" s="74"/>
-      <c r="W15" s="74"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
+      <c r="V15" s="32"/>
+      <c r="W15" s="32"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="32"/>
+      <c r="Z15" s="32"/>
       <c r="AA15" s="66"/>
       <c r="AB15" s="46"/>
     </row>
@@ -2064,15 +2066,15 @@
       <c r="Q16" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="74"/>
+      <c r="R16" s="32"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="32"/>
       <c r="U16" s="34"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74"/>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
-      <c r="Z16" s="74"/>
+      <c r="V16" s="32"/>
+      <c r="W16" s="32"/>
+      <c r="X16" s="32"/>
+      <c r="Y16" s="32"/>
+      <c r="Z16" s="32"/>
       <c r="AA16" s="66"/>
       <c r="AB16" s="46"/>
     </row>
@@ -2106,15 +2108,15 @@
       <c r="N17" s="32"/>
       <c r="O17" s="46"/>
       <c r="Q17" s="47"/>
-      <c r="R17" s="74"/>
-      <c r="S17" s="74"/>
-      <c r="T17" s="74"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
       <c r="U17" s="34"/>
-      <c r="V17" s="74"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="74"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
       <c r="AA17" s="66"/>
       <c r="AB17" s="46"/>
     </row>
@@ -2144,9 +2146,9 @@
       <c r="N18" s="36"/>
       <c r="O18" s="49"/>
       <c r="Q18" s="47"/>
-      <c r="R18" s="74"/>
-      <c r="S18" s="74"/>
-      <c r="T18" s="74"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
       <c r="U18" s="35"/>
       <c r="V18" s="36"/>
       <c r="W18" s="36"/>
@@ -2274,16 +2276,17 @@
       <c r="N22" s="32"/>
       <c r="O22" s="46"/>
       <c r="Q22" s="47"/>
-      <c r="R22" s="75"/>
-      <c r="S22" s="75"/>
+      <c r="R22" s="39" t="s">
+        <v>33</v>
+      </c>
       <c r="T22" s="33"/>
-      <c r="U22" s="74"/>
-      <c r="V22" s="74"/>
-      <c r="W22" s="74"/>
-      <c r="X22" s="74"/>
-      <c r="Y22" s="74"/>
-      <c r="Z22" s="74"/>
-      <c r="AA22" s="74"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
       <c r="AB22" s="46"/>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.25">
@@ -2310,16 +2313,17 @@
       <c r="N23" s="32"/>
       <c r="O23" s="46"/>
       <c r="Q23" s="47"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75"/>
+      <c r="R23" s="39" t="s">
+        <v>32</v>
+      </c>
       <c r="T23" s="33"/>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74"/>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
-      <c r="Z23" s="74"/>
-      <c r="AA23" s="74"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="32"/>
+      <c r="AA23" s="32"/>
       <c r="AB23" s="46"/>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.25">
@@ -2347,16 +2351,17 @@
       <c r="N24" s="32"/>
       <c r="O24" s="46"/>
       <c r="Q24" s="47"/>
-      <c r="R24" s="74"/>
-      <c r="S24" s="75"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
-      <c r="Y24" s="74"/>
-      <c r="Z24" s="74"/>
-      <c r="AA24" s="74"/>
+      <c r="R24" s="32"/>
+      <c r="T24" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="32"/>
+      <c r="AA24" s="32"/>
       <c r="AB24" s="46"/>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.25">
@@ -2388,11 +2393,6 @@
       <c r="S25" s="36"/>
       <c r="T25" s="37"/>
       <c r="U25" s="36"/>
-      <c r="V25" s="75"/>
-      <c r="W25" s="75"/>
-      <c r="X25" s="75"/>
-      <c r="Y25" s="75"/>
-      <c r="Z25" s="75"/>
       <c r="AA25" s="36"/>
       <c r="AB25" s="49"/>
     </row>
@@ -2452,16 +2452,20 @@
       <c r="N27" s="32"/>
       <c r="O27" s="46"/>
       <c r="Q27" s="47"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" s="38" t="s">
+        <v>33</v>
+      </c>
       <c r="U27" s="34"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="74"/>
-      <c r="X27" s="74"/>
-      <c r="Y27" s="74"/>
-      <c r="Z27" s="74"/>
-      <c r="AA27" s="74"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+      <c r="Z27" s="32"/>
+      <c r="AA27" s="32"/>
       <c r="AB27" s="46"/>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.25">
@@ -2520,16 +2524,16 @@
       <c r="N29" s="32"/>
       <c r="O29" s="46"/>
       <c r="Q29" s="47"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="32"/>
       <c r="T29" s="33"/>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="74"/>
-      <c r="Z29" s="74"/>
-      <c r="AA29" s="74"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+      <c r="Z29" s="32"/>
+      <c r="AA29" s="32"/>
       <c r="AB29" s="46"/>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.25">
@@ -2566,16 +2570,20 @@
       <c r="N30" s="32"/>
       <c r="O30" s="46"/>
       <c r="Q30" s="47"/>
-      <c r="R30" s="74"/>
-      <c r="S30" s="74"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="74"/>
-      <c r="V30" s="74"/>
-      <c r="W30" s="74"/>
-      <c r="X30" s="74"/>
-      <c r="Y30" s="74"/>
-      <c r="Z30" s="74"/>
-      <c r="AA30" s="74"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="T30" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+      <c r="Z30" s="32"/>
+      <c r="AA30" s="32"/>
       <c r="AB30" s="46"/>
     </row>
     <row r="31" spans="2:28" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
